--- a/xlsx/test11.xlsx
+++ b/xlsx/test11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10020" activeTab="1"/>
+    <workbookView windowWidth="16245" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -1094,8 +1094,8 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1119,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1397,8 +1397,8 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/xlsx/test11.xlsx
+++ b/xlsx/test11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10020"/>
+    <workbookView windowWidth="16245" windowHeight="10020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t>EXPORT_SVR</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>test_svr1</t>
+  </si>
+  <si>
+    <t>[[id], [name],[age,name],[id,name],[id,age,    sex]]</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1097,8 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1397,8 +1400,8 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1438,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1587,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>10</v>

--- a/xlsx/test11.xlsx
+++ b/xlsx/test11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10020" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t>EXPORT_SVR</t>
   </si>
@@ -47,12 +47,18 @@
     <t>id</t>
   </si>
   <si>
-    <t>UNION_KEYS</t>
+    <t>UNION_KEYS_SVR</t>
   </si>
   <si>
     <t>[name,[age],[id,name],[id,age,sex]]</t>
   </si>
   <si>
+    <t>UNION_KEYS_CLI</t>
+  </si>
+  <si>
+    <t>[[id],[id,name],[id,age,sex]]</t>
+  </si>
+  <si>
     <t>OUT_SVR</t>
   </si>
   <si>
@@ -132,33 +138,6 @@
   </si>
   <si>
     <t>说明2</t>
-  </si>
-  <si>
-    <t>name3</t>
-  </si>
-  <si>
-    <t>[1,2,5]</t>
-  </si>
-  <si>
-    <t>说明3</t>
-  </si>
-  <si>
-    <t>name4</t>
-  </si>
-  <si>
-    <t>[1,2,6]</t>
-  </si>
-  <si>
-    <t>说明4</t>
-  </si>
-  <si>
-    <t>name5</t>
-  </si>
-  <si>
-    <t>[1,2,7]</t>
-  </si>
-  <si>
-    <t>说明5</t>
   </si>
   <si>
     <t>test_svr1</t>
@@ -1095,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1141,32 +1120,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1184,96 +1148,96 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -1283,109 +1247,69 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>31</v>
       </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>34</v>
       </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1398,10 +1322,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1417,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1441,35 +1365,20 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1487,96 +1396,96 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -1586,112 +1495,69 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
         <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>34</v>
       </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
